--- a/achievementdata.xlsx
+++ b/achievementdata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9875"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -256,394 +257,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="10">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -657,332 +326,39 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1267,26 +643,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="28.4259259259259" customWidth="1"/>
-    <col min="3" max="3" width="25.8518518518519" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="28.425925925926" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25.851851851852" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" customHeight="1" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1312,7 +692,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1327,7 +707,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1342,7 +722,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1357,7 +737,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1372,7 +752,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1387,7 +767,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1402,7 +782,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1417,7 +797,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1432,7 +812,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1447,7 +827,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1462,7 +842,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1477,7 +857,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1492,7 +872,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1507,7 +887,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1522,7 +902,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1537,7 +917,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1552,7 +932,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1567,7 +947,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1582,7 +962,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1597,7 +977,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1612,7 +992,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1627,7 +1007,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1642,7 +1022,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1657,7 +1037,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1672,7 +1052,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1687,7 +1067,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1702,7 +1082,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1717,7 +1097,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1732,7 +1112,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" customHeight="1" ht="31.5" s="1" customFormat="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1747,7 +1127,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1762,7 +1142,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1" spans="1:2">
+    <row r="33" spans="1:5" customHeight="1" ht="15.75">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1770,7 +1150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1781,7 +1161,7 @@
         <v>122112</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1795,13 +1175,29 @@
         <v>122112</v>
       </c>
     </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Thinkmerit.in"/>
+    <hyperlink ref="B4" r:id="rId_hyperlink_1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.69930555555556" right="0.69930555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/achievementdata.xlsx
+++ b/achievementdata.xlsx
@@ -652,7 +652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B45" sqref="B45"/>
@@ -1182,6 +1182,14 @@
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/achievementdata.xlsx
+++ b/achievementdata.xlsx
@@ -652,7 +652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B45" sqref="B45"/>
@@ -1190,6 +1190,14 @@
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/achievementdata.xlsx
+++ b/achievementdata.xlsx
@@ -652,7 +652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B45" sqref="B45"/>
@@ -1198,6 +1198,14 @@
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/achievementdata.xlsx
+++ b/achievementdata.xlsx
@@ -652,7 +652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B45" sqref="B45"/>
@@ -1206,6 +1206,14 @@
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
